--- a/AE Zaid/Bagerhat/2022-23/Design_volume.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Design_volume.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>Fulhata</t>
+  </si>
+  <si>
+    <t>Ghoshiakhali</t>
   </si>
 </sst>
 </file>
@@ -854,14 +857,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1705,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection sqref="A1:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1718,11 +1721,11 @@
     <col min="5" max="5" width="14.42578125" style="47" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="47" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1823,7 +1826,7 @@
         <v>651</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D17" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D18" si="0">C3-B3</f>
         <v>510</v>
       </c>
       <c r="E3" s="21">
@@ -1869,7 +1872,7 @@
         <v>23.5</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G17" si="1">SUM(E4:F4)</f>
+        <f t="shared" ref="G4:G18" si="1">SUM(E4:F4)</f>
         <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1968,7 +1971,7 @@
         <v>42</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" ref="M6:M17" si="3">G6</f>
+        <f t="shared" ref="M6:M18" si="3">G6</f>
         <v>39</v>
       </c>
     </row>
@@ -2161,7 +2164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="50" customFormat="1">
+    <row r="12" spans="1:13" s="49" customFormat="1">
       <c r="A12" s="45" t="s">
         <v>23</v>
       </c>
@@ -2290,44 +2293,44 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="49">
+      <c r="A15" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="48">
         <v>0</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="48">
         <v>1000</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="48">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="48">
         <v>30</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="48">
         <v>24</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="48">
         <f>SUM(E15:F15)</f>
         <v>54</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="48">
         <v>29.5</v>
       </c>
-      <c r="J15" s="49">
+      <c r="J15" s="48">
         <v>22</v>
       </c>
-      <c r="K15" s="49">
-        <f t="shared" ref="K15:K17" si="9">I15+J15</f>
+      <c r="K15" s="48">
+        <f t="shared" ref="K15:K18" si="9">I15+J15</f>
         <v>51.5</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49">
+      <c r="L15" s="48"/>
+      <c r="M15" s="48">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
@@ -2340,11 +2343,11 @@
         <v>0</v>
       </c>
       <c r="C16" s="21">
-        <v>500</v>
-      </c>
-      <c r="D16" s="51">
-        <f t="shared" ref="D16" si="10">C16-B16</f>
-        <v>500</v>
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="50">
+        <f t="shared" ref="D16:D17" si="10">C16-B16</f>
+        <v>0.4</v>
       </c>
       <c r="E16" s="21">
         <v>22</v>
@@ -2353,7 +2356,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="21">
-        <f t="shared" ref="G16" si="11">SUM(E16:F16)</f>
+        <f t="shared" ref="G16:G17" si="11">SUM(E16:F16)</f>
         <v>39</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -2371,7 +2374,7 @@
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="21">
-        <f t="shared" ref="M16" si="12">G16</f>
+        <f t="shared" ref="M16:M17" si="12">G16</f>
         <v>39</v>
       </c>
     </row>
@@ -2380,24 +2383,24 @@
         <v>186</v>
       </c>
       <c r="B17" s="21">
-        <v>500</v>
+        <v>0.4</v>
       </c>
       <c r="C17" s="21">
-        <v>1000</v>
-      </c>
-      <c r="D17" s="51">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="21">
+        <f t="shared" si="10"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="E17" s="21">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F17" s="21">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G17" s="21">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f t="shared" si="11"/>
+        <v>29</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>177</v>
@@ -2409,18 +2412,57 @@
         <v>15</v>
       </c>
       <c r="K17" s="21">
+        <f t="shared" ref="K17" si="13">I17+J17</f>
+        <v>30</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="47" customFormat="1">
+      <c r="A18" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="21">
+        <v>14</v>
+      </c>
+      <c r="F18" s="21">
+        <v>11</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="21">
+        <v>15</v>
+      </c>
+      <c r="J18" s="21">
+        <v>15</v>
+      </c>
+      <c r="K18" s="21">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21">
+      <c r="L18" s="21"/>
+      <c r="M18" s="21">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="D18" s="24"/>
-      <c r="G18" s="24"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="D19" s="24"/>
@@ -2438,9 +2480,13 @@
       <c r="D22" s="24"/>
       <c r="G22" s="24"/>
     </row>
+    <row r="23" spans="1:13">
+      <c r="D23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H18">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6016,12 +6062,12 @@
       <c r="F1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10">
       <c r="F2" s="1"/>

--- a/AE Zaid/Bagerhat/2022-23/Design_volume.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Design_volume.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,11 @@
     <sheet name="Back_calcualtion_protective_wor" sheetId="5" r:id="rId9"/>
     <sheet name="Unit_Cost_Calcualtion" sheetId="10" r:id="rId10"/>
     <sheet name="volume_comparison" sheetId="12" r:id="rId11"/>
+    <sheet name="Revised_Estimate_Sinnikhali" sheetId="13" r:id="rId12"/>
+    <sheet name="Revised_Estimate_Sinnikhali_shr" sheetId="14" r:id="rId13"/>
+    <sheet name="Geo_Bag_Thickness" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="227">
   <si>
     <t>Name</t>
   </si>
@@ -593,12 +596,129 @@
   </si>
   <si>
     <t>Ghoshiakhali</t>
+  </si>
+  <si>
+    <t>ItemCode</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Site Prep</t>
+  </si>
+  <si>
+    <t>Bamboo Profile</t>
+  </si>
+  <si>
+    <t>BM Pillars</t>
+  </si>
+  <si>
+    <t>40-170-25</t>
+  </si>
+  <si>
+    <t>40-170-45</t>
+  </si>
+  <si>
+    <t>45X45X30 CC Block:Stone Chips:12 MPA</t>
+  </si>
+  <si>
+    <t>35X35X35 CC Block:Stone Chips:10.5 MPA</t>
+  </si>
+  <si>
+    <t>45X45X45 CC Block:Stone Chips:10.5 MPA</t>
+  </si>
+  <si>
+    <t>40-190-30</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
+    <t>40-270-20</t>
+  </si>
+  <si>
+    <t>CC Block Placing within 200m</t>
+  </si>
+  <si>
+    <t>CC Block Placing within 200m to 500m</t>
+  </si>
+  <si>
+    <t>CC Block Dumping within 200m</t>
+  </si>
+  <si>
+    <t>CC Block Dumping within 200m to 500m</t>
+  </si>
+  <si>
+    <t>Supplying 200kg Geobag 0.133cum</t>
+  </si>
+  <si>
+    <t>Dumping 200kg Geobag 0.133cum</t>
+  </si>
+  <si>
+    <t>Supplying and Laying Sand Filter 1:1.5 FM</t>
+  </si>
+  <si>
+    <t>40-520-30</t>
+  </si>
+  <si>
+    <t>Khoa Filter 40mm to 20mm</t>
+  </si>
+  <si>
+    <t>Khoa Filter 20mm to 5mm</t>
+  </si>
+  <si>
+    <t>40-500-40</t>
+  </si>
+  <si>
+    <t>Geotextile Filter</t>
+  </si>
+  <si>
+    <t>Sqm</t>
+  </si>
+  <si>
+    <t>Cutting Filling Eroded Bank</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>40-180-25</t>
+  </si>
+  <si>
+    <t>40-180-45</t>
+  </si>
+  <si>
+    <t>45X45X45 CC Block:Stone shingles:10.5 MPA</t>
+  </si>
+  <si>
+    <t>35X35X35 CC Block:Stone shingles:10.5 MPA</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>density(kg/cum)</t>
+  </si>
+  <si>
+    <t>L(mm)</t>
+  </si>
+  <si>
+    <t>B(mm)</t>
+  </si>
+  <si>
+    <t>avg_thick(m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -746,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,6 +982,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1139,7 +1262,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1151,9 +1274,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1168,20 +1291,20 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="5:18">
@@ -1710,23 +1833,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:M18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="47"/>
-    <col min="5" max="5" width="14.42578125" style="47" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="47" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="47"/>
+    <col min="5" max="5" width="14.44140625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="18" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2495,6 +2618,1466 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43.54</v>
+      </c>
+      <c r="E2" s="2">
+        <v>123840</v>
+      </c>
+      <c r="F2" s="17">
+        <f>D2*E2</f>
+        <v>5391993.5999999996</v>
+      </c>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2">
+        <v>372.04</v>
+      </c>
+      <c r="E3" s="2">
+        <v>32</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" ref="F3:F18" si="0">D3*E3</f>
+        <v>11905.28</v>
+      </c>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1421.49</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>4264.47</v>
+      </c>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1366.89</v>
+      </c>
+      <c r="E5" s="2">
+        <f>N5</f>
+        <v>108642</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>148501663.38000003</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I5" s="4">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2">
+        <f>H5*I5</f>
+        <v>16500</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L5" s="2">
+        <f>J5*K5</f>
+        <v>9900</v>
+      </c>
+      <c r="M5" s="2">
+        <f>0.45^3</f>
+        <v>9.1125000000000012E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <f>ROUNDUP(L5/M5,0)</f>
+        <v>108642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2">
+        <v>642.03</v>
+      </c>
+      <c r="E6" s="2">
+        <f>N6</f>
+        <v>153936</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>98831530.079999998</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I6" s="4">
+        <f>I5</f>
+        <v>11</v>
+      </c>
+      <c r="J6" s="2">
+        <f>H6*I6</f>
+        <v>16500</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="2">
+        <f>J6*K6</f>
+        <v>6600</v>
+      </c>
+      <c r="M6" s="2">
+        <f>0.35^3</f>
+        <v>4.287499999999999E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <f>ROUNDUP(L6/M6,0)</f>
+        <v>153936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2">
+        <v>932.55</v>
+      </c>
+      <c r="E7" s="4">
+        <v>40000</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="0"/>
+        <v>37302000</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1586.93</v>
+      </c>
+      <c r="E8" s="4">
+        <f>L8</f>
+        <v>9000</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="0"/>
+        <v>14282370</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I8" s="2">
+        <f>I6</f>
+        <v>11</v>
+      </c>
+      <c r="J8" s="2">
+        <v>30000</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="2">
+        <f>J8*K8</f>
+        <v>9000</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2486.73</v>
+      </c>
+      <c r="E9" s="4">
+        <f>L9</f>
+        <v>21000</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="0"/>
+        <v>52221330</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I9" s="2">
+        <f>I5</f>
+        <v>11</v>
+      </c>
+      <c r="J9" s="2">
+        <v>30000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L9" s="2">
+        <f>J9*K9</f>
+        <v>21000</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2157.1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9450</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="0"/>
+        <v>20384595</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2">
+        <f>I5/I10</f>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2796.3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>22050</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>61658415.000000007</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <f>I10-I5</f>
+        <v>37</v>
+      </c>
+      <c r="J11" s="2">
+        <f>1-J10</f>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4">
+        <v>353.88</v>
+      </c>
+      <c r="E12" s="2">
+        <f>N12</f>
+        <v>417294</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>147672000.72</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="2">
+        <f>I11</f>
+        <v>37</v>
+      </c>
+      <c r="J12" s="2">
+        <f>H12*I12</f>
+        <v>55500</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <f>J12*K12</f>
+        <v>55500</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="N12" s="2">
+        <f>ROUNDUP(L12/M12,0)</f>
+        <v>417294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4">
+        <v>211.15</v>
+      </c>
+      <c r="E13" s="2">
+        <f>N13</f>
+        <v>417294</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>88111628.100000009</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I13" s="2">
+        <f>I12</f>
+        <v>37</v>
+      </c>
+      <c r="J13" s="2">
+        <f>H13*I13</f>
+        <v>55500</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <f>J13*K13</f>
+        <v>55500</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="N13" s="2">
+        <f>ROUNDUP(L13/M13,0)</f>
+        <v>417294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1344.22</v>
+      </c>
+      <c r="E14" s="2">
+        <v>810</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>1088818.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4900.41</v>
+      </c>
+      <c r="E15" s="2">
+        <v>405</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>1984666.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5401.45</v>
+      </c>
+      <c r="E16" s="2">
+        <v>405</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>2187587.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="4">
+        <v>286.16000000000003</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8100</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>2317896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4">
+        <v>248.87</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5436</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>1352857.32</v>
+      </c>
+      <c r="H18" s="34">
+        <v>1500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>27</v>
+      </c>
+      <c r="J18" s="34">
+        <f>H18*I18</f>
+        <v>40500</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="L18" s="34">
+        <f>J18*K18</f>
+        <v>24300</v>
+      </c>
+      <c r="M18" s="34">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="N18" s="34">
+        <f>L18/M18</f>
+        <v>182706.76691729322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="F19" s="16">
+        <f>SUM(F2:F18)</f>
+        <v>683305520.45000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43.54</v>
+      </c>
+      <c r="E2" s="2">
+        <v>123840</v>
+      </c>
+      <c r="F2" s="17">
+        <f>D2*E2</f>
+        <v>5391993.5999999996</v>
+      </c>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2">
+        <v>372.04</v>
+      </c>
+      <c r="E3" s="2">
+        <v>32</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" ref="F3:F18" si="0">D3*E3</f>
+        <v>11905.28</v>
+      </c>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1421.49</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>4264.47</v>
+      </c>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1171.8399999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <f>N5</f>
+        <v>138272</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>162032660.47999999</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I5" s="4">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2">
+        <f>H5*I5</f>
+        <v>21000</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L5" s="2">
+        <f>J5*K5</f>
+        <v>12600</v>
+      </c>
+      <c r="M5" s="2">
+        <f>0.45^3</f>
+        <v>9.1125000000000012E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <f>ROUNDUP(L5/M5,0)</f>
+        <v>138272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2">
+        <v>550.41</v>
+      </c>
+      <c r="E6" s="2">
+        <f>N6</f>
+        <v>195919</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>107835776.78999999</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I6" s="4">
+        <f>I5</f>
+        <v>14</v>
+      </c>
+      <c r="J6" s="2">
+        <f>H6*I6</f>
+        <v>21000</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="2">
+        <f>J6*K6</f>
+        <v>8400</v>
+      </c>
+      <c r="M6" s="2">
+        <f>0.35^3</f>
+        <v>4.287499999999999E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <f>ROUNDUP(L6/M6,0)</f>
+        <v>195919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2">
+        <v>932.55</v>
+      </c>
+      <c r="E7" s="4">
+        <v>40000</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="0"/>
+        <v>37302000</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1586.93</v>
+      </c>
+      <c r="E8" s="4">
+        <f>L8</f>
+        <v>9000</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="0"/>
+        <v>14282370</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I8" s="2">
+        <f>I6</f>
+        <v>14</v>
+      </c>
+      <c r="J8" s="2">
+        <v>30000</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="2">
+        <f>J8*K8</f>
+        <v>9000</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2486.73</v>
+      </c>
+      <c r="E9" s="4">
+        <f>L9</f>
+        <v>21000</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="0"/>
+        <v>52221330</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I9" s="2">
+        <f>I5</f>
+        <v>14</v>
+      </c>
+      <c r="J9" s="2">
+        <v>30000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L9" s="2">
+        <f>J9*K9</f>
+        <v>21000</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2157.1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9450</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="0"/>
+        <v>20384595</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2">
+        <f>I5/I10</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2796.3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>22050</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>61658415.000000007</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <f>I10-I5</f>
+        <v>34</v>
+      </c>
+      <c r="J11" s="2">
+        <f>1-J10</f>
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4">
+        <v>353.88</v>
+      </c>
+      <c r="E12" s="2">
+        <f>N12</f>
+        <v>383459</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>135698470.91999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="2">
+        <f>I11</f>
+        <v>34</v>
+      </c>
+      <c r="J12" s="2">
+        <f>H12*I12</f>
+        <v>51000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <f>J12*K12</f>
+        <v>51000</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="N12" s="2">
+        <f>ROUNDUP(L12/M12,0)</f>
+        <v>383459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4">
+        <v>211.15</v>
+      </c>
+      <c r="E13" s="2">
+        <f>N13</f>
+        <v>383459</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>80967367.850000009</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I13" s="2">
+        <f>I12</f>
+        <v>34</v>
+      </c>
+      <c r="J13" s="2">
+        <f>H13*I13</f>
+        <v>51000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <f>J13*K13</f>
+        <v>51000</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="N13" s="2">
+        <f>ROUNDUP(L13/M13,0)</f>
+        <v>383459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1344.22</v>
+      </c>
+      <c r="E14" s="2">
+        <v>810</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>1088818.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4900.41</v>
+      </c>
+      <c r="E15" s="2">
+        <v>405</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>1984666.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5401.45</v>
+      </c>
+      <c r="E16" s="2">
+        <v>405</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>2187587.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="4">
+        <v>286.16000000000003</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8100</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>2317896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4">
+        <v>248.87</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5436</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>1352857.32</v>
+      </c>
+      <c r="H18" s="34">
+        <v>1500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>27</v>
+      </c>
+      <c r="J18" s="34">
+        <f>H18*I18</f>
+        <v>40500</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="L18" s="34">
+        <f>J18*K18</f>
+        <v>24300</v>
+      </c>
+      <c r="M18" s="34">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="N18" s="34">
+        <f>L18/M18</f>
+        <v>182706.76691729322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="F19" s="15">
+        <f>SUM(F2:F18)</f>
+        <v>686722974.21000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="F20" s="15">
+        <v>682869150.41774476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="F21" s="15">
+        <f>F20-F19</f>
+        <v>-3853823.7922552824</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>250</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C2" s="2">
+        <v>950</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1502</v>
+      </c>
+      <c r="E2" s="2">
+        <f>A2/D2</f>
+        <v>0.16644474034620507</v>
+      </c>
+      <c r="F2" s="2">
+        <f>(B2/1000)*(C2/1000)</f>
+        <v>1.1875</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2/F2</f>
+        <v>0.14016399187048847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>200</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>850</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1502</v>
+      </c>
+      <c r="E3" s="2">
+        <f>A3/D3</f>
+        <v>0.13315579227696406</v>
+      </c>
+      <c r="F3" s="2">
+        <f>(B3/1000)*(C3/1000)</f>
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="G3" s="2">
+        <f>E3/F3</f>
+        <v>0.14241261206092412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>175</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1075</v>
+      </c>
+      <c r="C4" s="2">
+        <v>850</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1502</v>
+      </c>
+      <c r="E4" s="2">
+        <f>A4/D4</f>
+        <v>0.11651131824234354</v>
+      </c>
+      <c r="F4" s="2">
+        <f>(B4/1000)*(C4/1000)</f>
+        <v>0.91374999999999995</v>
+      </c>
+      <c r="G4" s="2">
+        <f>E4/F4</f>
+        <v>0.12750896661268787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2">
+        <v>950</v>
+      </c>
+      <c r="C5" s="2">
+        <v>750</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1502</v>
+      </c>
+      <c r="E5" s="2">
+        <f>A5/D5</f>
+        <v>8.3222370173102536E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <f>(B5/1000)*(C5/1000)</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="G5" s="2">
+        <f>E5/F5</f>
+        <v>0.11680332655874041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>110</v>
+      </c>
+      <c r="B6" s="4">
+        <v>900</v>
+      </c>
+      <c r="C6" s="4">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1502</v>
+      </c>
+      <c r="E6" s="2">
+        <f>A6/D6</f>
+        <v>7.3235685752330221E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <f>(B6/1000)*(C6/1000)</f>
+        <v>0.63</v>
+      </c>
+      <c r="G6" s="2">
+        <f>E6/F6</f>
+        <v>0.116247120241794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2">
+        <v>850</v>
+      </c>
+      <c r="C7" s="2">
+        <v>700</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1502</v>
+      </c>
+      <c r="E7" s="2">
+        <f>A7/D7</f>
+        <v>5.3262316910785618E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f>(B7/1000)*(C7/1000)</f>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G7" s="2">
+        <f>E7/F7</f>
+        <v>8.9516499009723735E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="G9" s="3">
+        <f>4*0.14</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="G10" s="51">
+        <f>0.7</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" s="51">
+        <f>G10*0.67</f>
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="G12" s="51">
+        <f>G9+G11</f>
+        <v>1.0289999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
@@ -2503,14 +4086,14 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2790,22 +4373,22 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" style="12"/>
-    <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="12"/>
-    <col min="7" max="7" width="14.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="12"/>
+    <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="12"/>
+    <col min="7" max="7" width="14.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4277,15 +5860,15 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5172,16 +6755,16 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6037,13 +7620,13 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6062,12 +7645,12 @@
       <c r="F1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:10">
       <c r="F2" s="1"/>
@@ -6251,11 +7834,11 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
@@ -6469,19 +8052,19 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="6:17">
@@ -6700,9 +8283,9 @@
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/AE Zaid/Bagerhat/2022-23/Design_volume.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Design_volume.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="volume_comparison" sheetId="12" r:id="rId11"/>
     <sheet name="Revised_Estimate_Sinnikhali" sheetId="13" r:id="rId12"/>
     <sheet name="Revised_Estimate_Sinnikhali_shr" sheetId="14" r:id="rId13"/>
-    <sheet name="Geo_Bag_Thickness" sheetId="15" r:id="rId14"/>
+    <sheet name="Revised_Estimate_Sinnikhali_SCB" sheetId="16" r:id="rId14"/>
+    <sheet name="Geo_Bag_Thickness" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="232">
   <si>
     <t>Name</t>
   </si>
@@ -713,13 +714,28 @@
   </si>
   <si>
     <t>avg_thick(m)</t>
+  </si>
+  <si>
+    <t>XX-XXX-XX</t>
+  </si>
+  <si>
+    <t>lged_rate_cum*110%</t>
+  </si>
+  <si>
+    <t>45X45X45 Sand Cement CC Block  35 MPA</t>
+  </si>
+  <si>
+    <t>35X35X35 Sand Cement CC Block  35 MPA</t>
+  </si>
+  <si>
+    <t>45X45X30 Sand Cement CC Block  35 MPA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,6 +751,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -866,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -980,7 +1003,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -988,6 +1010,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1050,7 +1078,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1085,7 +1113,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1833,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1844,12 +1872,12 @@
     <col min="5" max="5" width="14.44140625" style="47" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="47" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2287,38 +2315,44 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="49" customFormat="1">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:13" s="47" customFormat="1">
+      <c r="A12" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="53">
         <v>2100</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="53">
         <v>3600</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="53">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="53">
         <v>27</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="53">
         <v>21</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="53">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45">
+      <c r="I12" s="21">
+        <v>22</v>
+      </c>
+      <c r="J12" s="21">
+        <v>15.5</v>
+      </c>
+      <c r="K12" s="21">
+        <v>37.5</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
@@ -2468,7 +2502,7 @@
       <c r="C16" s="21">
         <v>0.4</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="49">
         <f t="shared" ref="D16:D17" si="10">C16-B16</f>
         <v>0.4</v>
       </c>
@@ -2622,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2675,7 +2709,7 @@
         <f>D2*E2</f>
         <v>5391993.5999999996</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
@@ -2697,7 +2731,7 @@
         <f t="shared" ref="F3:F18" si="0">D3*E3</f>
         <v>11905.28</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
@@ -2719,7 +2753,7 @@
         <f t="shared" si="0"/>
         <v>4264.47</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
@@ -3234,7 +3268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -3287,7 +3321,7 @@
         <f>D2*E2</f>
         <v>5391993.5999999996</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
@@ -3309,7 +3343,7 @@
         <f t="shared" ref="F3:F18" si="0">D3*E3</f>
         <v>11905.28</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
@@ -3331,7 +3365,7 @@
         <f t="shared" si="0"/>
         <v>4264.47</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
@@ -3854,6 +3888,662 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43.54</v>
+      </c>
+      <c r="E2" s="2">
+        <v>123840</v>
+      </c>
+      <c r="F2" s="17">
+        <f>D2*E2</f>
+        <v>5391993.5999999996</v>
+      </c>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2">
+        <v>372.04</v>
+      </c>
+      <c r="E3" s="2">
+        <v>32</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" ref="F3:F18" si="0">D3*E3</f>
+        <v>11905.28</v>
+      </c>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1421.49</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>4264.47</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="O4" s="51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2">
+        <v>666.95</v>
+      </c>
+      <c r="E5" s="2">
+        <f>N5</f>
+        <v>237038</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>158092494.10000002</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I5" s="4">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2">
+        <f>H5*I5</f>
+        <v>36000</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L5" s="2">
+        <f>J5*K5</f>
+        <v>21600</v>
+      </c>
+      <c r="M5" s="2">
+        <f>0.45^3</f>
+        <v>9.1125000000000012E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <f>ROUNDUP(L5/M5,0)</f>
+        <v>237038</v>
+      </c>
+      <c r="O5" s="2">
+        <v>7319</v>
+      </c>
+      <c r="P5">
+        <f>O5*M5</f>
+        <v>666.94387500000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2">
+        <v>313.8</v>
+      </c>
+      <c r="E6" s="2">
+        <f>N6</f>
+        <v>335861</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>105393181.8</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I6" s="4">
+        <f>I5</f>
+        <v>24</v>
+      </c>
+      <c r="J6" s="2">
+        <f>H6*I6</f>
+        <v>36000</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="2">
+        <f>J6*K6</f>
+        <v>14400</v>
+      </c>
+      <c r="M6" s="2">
+        <f>0.35^3</f>
+        <v>4.287499999999999E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <f>ROUNDUP(L6/M6,0)</f>
+        <v>335861</v>
+      </c>
+      <c r="O6" s="2">
+        <v>7319</v>
+      </c>
+      <c r="P6">
+        <f>O6*M6</f>
+        <v>313.80212499999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2">
+        <v>444.63</v>
+      </c>
+      <c r="E7" s="4">
+        <v>40000</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="0"/>
+        <v>17785200</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="5"/>
+      <c r="Q7">
+        <f>0.45*0.45*0.3</f>
+        <v>6.0749999999999998E-2</v>
+      </c>
+      <c r="R7">
+        <f>Q7*7319</f>
+        <v>444.62925000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1586.93</v>
+      </c>
+      <c r="E8" s="4">
+        <f>L8</f>
+        <v>9000</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="0"/>
+        <v>14282370</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I8" s="2">
+        <f>I6</f>
+        <v>24</v>
+      </c>
+      <c r="J8" s="2">
+        <v>30000</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="2">
+        <f>J8*K8</f>
+        <v>9000</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2486.73</v>
+      </c>
+      <c r="E9" s="4">
+        <f>L9</f>
+        <v>21000</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="0"/>
+        <v>52221330</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I9" s="2">
+        <f>I5</f>
+        <v>24</v>
+      </c>
+      <c r="J9" s="2">
+        <v>30000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L9" s="2">
+        <f>J9*K9</f>
+        <v>21000</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2157.1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9450</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="0"/>
+        <v>20384595</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2">
+        <f>I5/I10</f>
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2796.3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>22050</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>61658415.000000007</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <f>I10-I5</f>
+        <v>24</v>
+      </c>
+      <c r="J11" s="2">
+        <f>1-J10</f>
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4">
+        <v>353.88</v>
+      </c>
+      <c r="E12" s="2">
+        <f>N12</f>
+        <v>270677</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>95787176.760000005</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="2">
+        <f>I11</f>
+        <v>24</v>
+      </c>
+      <c r="J12" s="2">
+        <f>H12*I12</f>
+        <v>36000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <f>J12*K12</f>
+        <v>36000</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="N12" s="2">
+        <f>ROUNDUP(L12/M12,0)</f>
+        <v>270677</v>
+      </c>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4">
+        <v>211.15</v>
+      </c>
+      <c r="E13" s="2">
+        <f>N13</f>
+        <v>270677</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>57153448.550000004</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I13" s="2">
+        <f>I12</f>
+        <v>24</v>
+      </c>
+      <c r="J13" s="2">
+        <f>H13*I13</f>
+        <v>36000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <f>J13*K13</f>
+        <v>36000</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="N13" s="2">
+        <f>ROUNDUP(L13/M13,0)</f>
+        <v>270677</v>
+      </c>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1344.22</v>
+      </c>
+      <c r="E14" s="2">
+        <v>810</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>1088818.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4900.41</v>
+      </c>
+      <c r="E15" s="2">
+        <v>405</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>1984666.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5401.45</v>
+      </c>
+      <c r="E16" s="2">
+        <v>405</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>2187587.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="4">
+        <v>286.16000000000003</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8100</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>2317896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4">
+        <v>248.87</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5436</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>1352857.32</v>
+      </c>
+      <c r="H18" s="34">
+        <v>1500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>27</v>
+      </c>
+      <c r="J18" s="34">
+        <f>H18*I18</f>
+        <v>40500</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="L18" s="34">
+        <f>J18*K18</f>
+        <v>24300</v>
+      </c>
+      <c r="M18" s="34">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="N18" s="34">
+        <f>L18/M18</f>
+        <v>182706.76691729322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="F19" s="15">
+        <f>SUM(F2:F18)</f>
+        <v>597098199.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="F20" s="15">
+        <v>682869150.41774476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="F21" s="15">
+        <f>F20-F19</f>
+        <v>85770951.037744761</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -3907,15 +4597,15 @@
         <v>1502</v>
       </c>
       <c r="E2" s="2">
-        <f>A2/D2</f>
+        <f t="shared" ref="E2:E7" si="0">A2/D2</f>
         <v>0.16644474034620507</v>
       </c>
       <c r="F2" s="2">
-        <f>(B2/1000)*(C2/1000)</f>
+        <f t="shared" ref="F2:F7" si="1">(B2/1000)*(C2/1000)</f>
         <v>1.1875</v>
       </c>
       <c r="G2" s="2">
-        <f>E2/F2</f>
+        <f t="shared" ref="G2:G7" si="2">E2/F2</f>
         <v>0.14016399187048847</v>
       </c>
     </row>
@@ -3933,15 +4623,15 @@
         <v>1502</v>
       </c>
       <c r="E3" s="2">
-        <f>A3/D3</f>
+        <f t="shared" si="0"/>
         <v>0.13315579227696406</v>
       </c>
       <c r="F3" s="2">
-        <f>(B3/1000)*(C3/1000)</f>
+        <f t="shared" si="1"/>
         <v>0.93500000000000005</v>
       </c>
       <c r="G3" s="2">
-        <f>E3/F3</f>
+        <f t="shared" si="2"/>
         <v>0.14241261206092412</v>
       </c>
     </row>
@@ -3959,15 +4649,15 @@
         <v>1502</v>
       </c>
       <c r="E4" s="2">
-        <f>A4/D4</f>
+        <f t="shared" si="0"/>
         <v>0.11651131824234354</v>
       </c>
       <c r="F4" s="2">
-        <f>(B4/1000)*(C4/1000)</f>
+        <f t="shared" si="1"/>
         <v>0.91374999999999995</v>
       </c>
       <c r="G4" s="2">
-        <f>E4/F4</f>
+        <f t="shared" si="2"/>
         <v>0.12750896661268787</v>
       </c>
     </row>
@@ -3985,15 +4675,15 @@
         <v>1502</v>
       </c>
       <c r="E5" s="2">
-        <f>A5/D5</f>
+        <f t="shared" si="0"/>
         <v>8.3222370173102536E-2</v>
       </c>
       <c r="F5" s="2">
-        <f>(B5/1000)*(C5/1000)</f>
+        <f t="shared" si="1"/>
         <v>0.71249999999999991</v>
       </c>
       <c r="G5" s="2">
-        <f>E5/F5</f>
+        <f t="shared" si="2"/>
         <v>0.11680332655874041</v>
       </c>
     </row>
@@ -4011,15 +4701,15 @@
         <v>1502</v>
       </c>
       <c r="E6" s="2">
-        <f>A6/D6</f>
+        <f t="shared" si="0"/>
         <v>7.3235685752330221E-2</v>
       </c>
       <c r="F6" s="4">
-        <f>(B6/1000)*(C6/1000)</f>
+        <f t="shared" si="1"/>
         <v>0.63</v>
       </c>
       <c r="G6" s="2">
-        <f>E6/F6</f>
+        <f t="shared" si="2"/>
         <v>0.116247120241794</v>
       </c>
     </row>
@@ -4037,15 +4727,15 @@
         <v>1502</v>
       </c>
       <c r="E7" s="2">
-        <f>A7/D7</f>
+        <f t="shared" si="0"/>
         <v>5.3262316910785618E-2</v>
       </c>
       <c r="F7" s="2">
-        <f>(B7/1000)*(C7/1000)</f>
+        <f t="shared" si="1"/>
         <v>0.59499999999999997</v>
       </c>
       <c r="G7" s="2">
-        <f>E7/F7</f>
+        <f t="shared" si="2"/>
         <v>8.9516499009723735E-2</v>
       </c>
     </row>
@@ -4056,19 +4746,19 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="G10" s="51">
+      <c r="G10" s="50">
         <f>0.7</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="G11" s="51">
+      <c r="G11" s="50">
         <f>G10*0.67</f>
         <v>0.46899999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="G12" s="51">
+      <c r="G12" s="50">
         <f>G9+G11</f>
         <v>1.0289999999999999</v>
       </c>
